--- a/Financials/Yearly/SSL_YR_FIN.xlsx
+++ b/Financials/Yearly/SSL_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C613E46-6543-41DE-B618-77BF66DAE1F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SSL" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,32 +689,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -706,88 +741,88 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12851100</v>
+        <v>12437300</v>
       </c>
       <c r="E8" s="3">
-        <v>12209900</v>
+        <v>11816800</v>
       </c>
       <c r="F8" s="3">
-        <v>12247800</v>
+        <v>11853400</v>
       </c>
       <c r="G8" s="3">
-        <v>13120500</v>
+        <v>12698100</v>
       </c>
       <c r="H8" s="3">
-        <v>14354000</v>
+        <v>13891900</v>
       </c>
       <c r="I8" s="3">
-        <v>12031700</v>
+        <v>11644300</v>
       </c>
       <c r="J8" s="3">
-        <v>11268500</v>
+        <v>10905700</v>
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5425200</v>
+        <v>5250600</v>
       </c>
       <c r="E9" s="3">
-        <v>5059100</v>
+        <v>4896200</v>
       </c>
       <c r="F9" s="3">
-        <v>5050900</v>
+        <v>4888300</v>
       </c>
       <c r="G9" s="3">
-        <v>5677600</v>
+        <v>5494800</v>
       </c>
       <c r="H9" s="3">
-        <v>6318800</v>
+        <v>6115400</v>
       </c>
       <c r="I9" s="3">
-        <v>5426000</v>
+        <v>5251300</v>
       </c>
       <c r="J9" s="3">
-        <v>13438300</v>
+        <v>13005700</v>
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7425800</v>
+        <v>7186800</v>
       </c>
       <c r="E10" s="3">
-        <v>7150800</v>
+        <v>6920600</v>
       </c>
       <c r="F10" s="3">
-        <v>7196900</v>
+        <v>6965200</v>
       </c>
       <c r="G10" s="3">
-        <v>7443000</v>
+        <v>7203300</v>
       </c>
       <c r="H10" s="3">
-        <v>8035200</v>
+        <v>7776500</v>
       </c>
       <c r="I10" s="3">
-        <v>6605700</v>
+        <v>6393000</v>
       </c>
       <c r="J10" s="3">
-        <v>-2169900</v>
+        <v>-2100000</v>
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,34 +835,34 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>47000</v>
+        <v>45500</v>
       </c>
       <c r="E12" s="3">
-        <v>34800</v>
+        <v>33700</v>
       </c>
       <c r="F12" s="3">
-        <v>19800</v>
+        <v>19100</v>
       </c>
       <c r="G12" s="3">
-        <v>39200</v>
+        <v>38000</v>
       </c>
       <c r="H12" s="3">
-        <v>45800</v>
+        <v>44300</v>
       </c>
       <c r="I12" s="3">
-        <v>130200</v>
+        <v>126000</v>
       </c>
       <c r="J12" s="3">
-        <v>93000</v>
+        <v>90000</v>
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -854,61 +889,61 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>678600</v>
+        <v>656800</v>
       </c>
       <c r="E14" s="3">
-        <v>111400</v>
+        <v>107800</v>
       </c>
       <c r="F14" s="3">
-        <v>925500</v>
+        <v>895700</v>
       </c>
       <c r="G14" s="3">
-        <v>133800</v>
+        <v>129500</v>
       </c>
       <c r="H14" s="3">
-        <v>481600</v>
+        <v>466100</v>
       </c>
       <c r="I14" s="3">
-        <v>876300</v>
+        <v>848000</v>
       </c>
       <c r="J14" s="3">
-        <v>265900</v>
+        <v>257300</v>
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>1163200</v>
+        <v>1125800</v>
       </c>
       <c r="E15" s="3">
-        <v>1147600</v>
+        <v>1110600</v>
       </c>
       <c r="F15" s="3">
-        <v>1159100</v>
+        <v>1121800</v>
       </c>
       <c r="G15" s="3">
-        <v>960800</v>
+        <v>929900</v>
       </c>
       <c r="H15" s="3">
-        <v>957200</v>
+        <v>926400</v>
       </c>
       <c r="I15" s="3">
-        <v>787600</v>
+        <v>762200</v>
       </c>
       <c r="J15" s="3">
-        <v>626200</v>
+        <v>606000</v>
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,61 +953,61 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>11696400</v>
+        <v>11319900</v>
       </c>
       <c r="E17" s="3">
-        <v>10040400</v>
+        <v>9717100</v>
       </c>
       <c r="F17" s="3">
-        <v>10567200</v>
+        <v>10227000</v>
       </c>
       <c r="G17" s="3">
-        <v>9969500</v>
+        <v>9648600</v>
       </c>
       <c r="H17" s="3">
-        <v>11403600</v>
+        <v>11036400</v>
       </c>
       <c r="I17" s="3">
-        <v>9530300</v>
+        <v>9223500</v>
       </c>
       <c r="J17" s="3">
-        <v>9021400</v>
+        <v>8731000</v>
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1154600</v>
+        <v>1117500</v>
       </c>
       <c r="E18" s="3">
-        <v>2169500</v>
+        <v>2099700</v>
       </c>
       <c r="F18" s="3">
-        <v>1680600</v>
+        <v>1626500</v>
       </c>
       <c r="G18" s="3">
-        <v>3151000</v>
+        <v>3049600</v>
       </c>
       <c r="H18" s="3">
-        <v>2950400</v>
+        <v>2855400</v>
       </c>
       <c r="I18" s="3">
-        <v>2501400</v>
+        <v>2420800</v>
       </c>
       <c r="J18" s="3">
-        <v>2247000</v>
+        <v>2174700</v>
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -985,142 +1020,142 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>223700</v>
+        <v>216500</v>
       </c>
       <c r="E20" s="3">
-        <v>186900</v>
+        <v>180900</v>
       </c>
       <c r="F20" s="3">
-        <v>164900</v>
+        <v>159600</v>
       </c>
       <c r="G20" s="3">
-        <v>235800</v>
+        <v>228200</v>
       </c>
       <c r="H20" s="3">
-        <v>380800</v>
+        <v>368500</v>
       </c>
       <c r="I20" s="3">
-        <v>601800</v>
+        <v>582500</v>
       </c>
       <c r="J20" s="3">
-        <v>555700</v>
+        <v>537800</v>
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2522200</v>
+        <v>2459800</v>
       </c>
       <c r="E21" s="3">
-        <v>3484800</v>
+        <v>3391200</v>
       </c>
       <c r="F21" s="3">
-        <v>2985200</v>
+        <v>2907800</v>
       </c>
       <c r="G21" s="3">
-        <v>4331600</v>
+        <v>4207700</v>
       </c>
       <c r="H21" s="3">
-        <v>4272500</v>
+        <v>4150400</v>
       </c>
       <c r="I21" s="3">
-        <v>3877700</v>
+        <v>3765500</v>
       </c>
       <c r="J21" s="3">
-        <v>3418500</v>
+        <v>3318500</v>
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>266200</v>
+        <v>257600</v>
       </c>
       <c r="E22" s="3">
-        <v>231200</v>
+        <v>223800</v>
       </c>
       <c r="F22" s="3">
-        <v>165700</v>
+        <v>160400</v>
       </c>
       <c r="G22" s="3">
-        <v>157900</v>
+        <v>152800</v>
       </c>
       <c r="H22" s="3">
-        <v>136300</v>
+        <v>131900</v>
       </c>
       <c r="I22" s="3">
-        <v>291200</v>
+        <v>281800</v>
       </c>
       <c r="J22" s="3">
-        <v>274200</v>
+        <v>265400</v>
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1112200</v>
+        <v>1076400</v>
       </c>
       <c r="E23" s="3">
-        <v>2125200</v>
+        <v>2056700</v>
       </c>
       <c r="F23" s="3">
-        <v>1679700</v>
+        <v>1625600</v>
       </c>
       <c r="G23" s="3">
-        <v>3228900</v>
+        <v>3124900</v>
       </c>
       <c r="H23" s="3">
-        <v>3194900</v>
+        <v>3092000</v>
       </c>
       <c r="I23" s="3">
-        <v>2812000</v>
+        <v>2721400</v>
       </c>
       <c r="J23" s="3">
-        <v>2528500</v>
+        <v>2447100</v>
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>393600</v>
+        <v>380900</v>
       </c>
       <c r="E24" s="3">
-        <v>601600</v>
+        <v>582200</v>
       </c>
       <c r="F24" s="3">
-        <v>615500</v>
+        <v>595700</v>
       </c>
       <c r="G24" s="3">
-        <v>1022000</v>
+        <v>989100</v>
       </c>
       <c r="H24" s="3">
-        <v>1040800</v>
+        <v>1007300</v>
       </c>
       <c r="I24" s="3">
-        <v>892000</v>
+        <v>863300</v>
       </c>
       <c r="J24" s="3">
-        <v>814500</v>
+        <v>788300</v>
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1147,61 +1182,61 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>718500</v>
+        <v>695400</v>
       </c>
       <c r="E26" s="3">
-        <v>1523600</v>
+        <v>1474500</v>
       </c>
       <c r="F26" s="3">
-        <v>1064200</v>
+        <v>1030000</v>
       </c>
       <c r="G26" s="3">
-        <v>2206900</v>
+        <v>2135800</v>
       </c>
       <c r="H26" s="3">
-        <v>2154100</v>
+        <v>2084800</v>
       </c>
       <c r="I26" s="3">
-        <v>1920000</v>
+        <v>1858200</v>
       </c>
       <c r="J26" s="3">
-        <v>1714000</v>
+        <v>1658800</v>
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>618200</v>
+        <v>598300</v>
       </c>
       <c r="E27" s="3">
-        <v>1442900</v>
+        <v>1396400</v>
       </c>
       <c r="F27" s="3">
-        <v>936600</v>
+        <v>906400</v>
       </c>
       <c r="G27" s="3">
-        <v>2104500</v>
+        <v>2036700</v>
       </c>
       <c r="H27" s="3">
-        <v>2094900</v>
+        <v>2027400</v>
       </c>
       <c r="I27" s="3">
-        <v>1860700</v>
+        <v>1800800</v>
       </c>
       <c r="J27" s="3">
-        <v>1669900</v>
+        <v>1616200</v>
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1228,7 +1263,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1255,7 +1290,7 @@
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1282,7 +1317,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1309,61 +1344,61 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-223700</v>
+        <v>-216500</v>
       </c>
       <c r="E32" s="3">
-        <v>-186900</v>
+        <v>-180900</v>
       </c>
       <c r="F32" s="3">
-        <v>-164900</v>
+        <v>-159600</v>
       </c>
       <c r="G32" s="3">
-        <v>-235800</v>
+        <v>-228200</v>
       </c>
       <c r="H32" s="3">
-        <v>-380800</v>
+        <v>-368500</v>
       </c>
       <c r="I32" s="3">
-        <v>-601800</v>
+        <v>-582500</v>
       </c>
       <c r="J32" s="3">
-        <v>-555700</v>
+        <v>-537800</v>
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>618200</v>
+        <v>598300</v>
       </c>
       <c r="E33" s="3">
-        <v>1442900</v>
+        <v>1396400</v>
       </c>
       <c r="F33" s="3">
-        <v>936600</v>
+        <v>906400</v>
       </c>
       <c r="G33" s="3">
-        <v>2104500</v>
+        <v>2036700</v>
       </c>
       <c r="H33" s="3">
-        <v>2094900</v>
+        <v>2027400</v>
       </c>
       <c r="I33" s="3">
-        <v>1860700</v>
+        <v>1800800</v>
       </c>
       <c r="J33" s="3">
-        <v>1669900</v>
+        <v>1616200</v>
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1390,39 +1425,39 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>618200</v>
+        <v>598300</v>
       </c>
       <c r="E35" s="3">
-        <v>1442900</v>
+        <v>1396400</v>
       </c>
       <c r="F35" s="3">
-        <v>936600</v>
+        <v>906400</v>
       </c>
       <c r="G35" s="3">
-        <v>2104500</v>
+        <v>2036700</v>
       </c>
       <c r="H35" s="3">
-        <v>2094900</v>
+        <v>2027400</v>
       </c>
       <c r="I35" s="3">
-        <v>1860700</v>
+        <v>1800800</v>
       </c>
       <c r="J35" s="3">
-        <v>1669900</v>
+        <v>1616200</v>
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1449,7 +1484,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1462,7 +1497,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1475,39 +1510,39 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1072800</v>
+        <v>1038200</v>
       </c>
       <c r="E41" s="3">
-        <v>1957700</v>
+        <v>1894700</v>
       </c>
       <c r="F41" s="3">
-        <v>3539900</v>
+        <v>3426000</v>
       </c>
       <c r="G41" s="3">
-        <v>3422700</v>
+        <v>3312500</v>
       </c>
       <c r="H41" s="3">
-        <v>2631300</v>
+        <v>2546600</v>
       </c>
       <c r="I41" s="3">
-        <v>1788000</v>
+        <v>1730400</v>
       </c>
       <c r="J41" s="3">
-        <v>887900</v>
+        <v>859400</v>
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -1522,203 +1557,203 @@
         <v>35</v>
       </c>
       <c r="I42" s="3">
-        <v>1071200</v>
+        <v>1036700</v>
       </c>
       <c r="J42" s="3">
-        <v>412800</v>
+        <v>399500</v>
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2280500</v>
+        <v>2207100</v>
       </c>
       <c r="E43" s="3">
-        <v>4194300</v>
+        <v>4059300</v>
       </c>
       <c r="F43" s="3">
-        <v>2139500</v>
+        <v>2070700</v>
       </c>
       <c r="G43" s="3">
-        <v>2019200</v>
+        <v>1954200</v>
       </c>
       <c r="H43" s="3">
-        <v>2121700</v>
+        <v>2053400</v>
       </c>
       <c r="I43" s="3">
-        <v>2247900</v>
+        <v>2175500</v>
       </c>
       <c r="J43" s="3">
-        <v>2104100</v>
+        <v>2036300</v>
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2079600</v>
+        <v>2012600</v>
       </c>
       <c r="E44" s="3">
-        <v>3594000</v>
+        <v>3478300</v>
       </c>
       <c r="F44" s="3">
-        <v>1685400</v>
+        <v>1631100</v>
       </c>
       <c r="G44" s="3">
-        <v>1638800</v>
+        <v>1586100</v>
       </c>
       <c r="H44" s="3">
-        <v>1895000</v>
+        <v>1834000</v>
       </c>
       <c r="I44" s="3">
-        <v>1601900</v>
+        <v>1550300</v>
       </c>
       <c r="J44" s="3">
-        <v>1339900</v>
+        <v>1296800</v>
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>315700</v>
+        <v>305600</v>
       </c>
       <c r="E45" s="3">
-        <v>417200</v>
+        <v>403800</v>
       </c>
       <c r="F45" s="3">
-        <v>293100</v>
+        <v>283700</v>
       </c>
       <c r="G45" s="3">
-        <v>474200</v>
+        <v>458900</v>
       </c>
       <c r="H45" s="3">
-        <v>247800</v>
+        <v>239800</v>
       </c>
       <c r="I45" s="3">
-        <v>735300</v>
+        <v>711700</v>
       </c>
       <c r="J45" s="3">
-        <v>307500</v>
+        <v>297600</v>
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5754600</v>
+        <v>5569400</v>
       </c>
       <c r="E46" s="3">
-        <v>6228900</v>
+        <v>6028400</v>
       </c>
       <c r="F46" s="3">
-        <v>7658000</v>
+        <v>7411400</v>
       </c>
       <c r="G46" s="3">
-        <v>7554900</v>
+        <v>7311700</v>
       </c>
       <c r="H46" s="3">
-        <v>6895800</v>
+        <v>6673800</v>
       </c>
       <c r="I46" s="3">
-        <v>6094900</v>
+        <v>5898700</v>
       </c>
       <c r="J46" s="3">
-        <v>4332100</v>
+        <v>4192600</v>
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1113900</v>
+        <v>1078000</v>
       </c>
       <c r="E47" s="3">
-        <v>1048300</v>
+        <v>1014600</v>
       </c>
       <c r="F47" s="3">
-        <v>1192100</v>
+        <v>1153700</v>
       </c>
       <c r="G47" s="3">
-        <v>1026000</v>
+        <v>992900</v>
       </c>
       <c r="H47" s="3">
-        <v>988300</v>
+        <v>956500</v>
       </c>
       <c r="I47" s="3">
-        <v>1177600</v>
+        <v>1139700</v>
       </c>
       <c r="J47" s="3">
-        <v>1180500</v>
+        <v>1142500</v>
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23570200</v>
+        <v>22811300</v>
       </c>
       <c r="E48" s="3">
-        <v>31747200</v>
+        <v>30725100</v>
       </c>
       <c r="F48" s="3">
-        <v>18347000</v>
+        <v>17756300</v>
       </c>
       <c r="G48" s="3">
-        <v>14008100</v>
+        <v>13557100</v>
       </c>
       <c r="H48" s="3">
-        <v>11527300</v>
+        <v>11156200</v>
       </c>
       <c r="I48" s="3">
-        <v>3803500</v>
+        <v>3681000</v>
       </c>
       <c r="J48" s="3">
-        <v>3236400</v>
+        <v>3132200</v>
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>190300</v>
+        <v>184200</v>
       </c>
       <c r="E49" s="3">
-        <v>167200</v>
+        <v>161800</v>
       </c>
       <c r="F49" s="3">
-        <v>189800</v>
+        <v>183700</v>
       </c>
       <c r="G49" s="3">
-        <v>162400</v>
+        <v>157200</v>
       </c>
       <c r="H49" s="3">
-        <v>178900</v>
+        <v>173100</v>
       </c>
       <c r="I49" s="3">
-        <v>20100</v>
+        <v>19500</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,7 +1780,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,34 +1807,34 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>477700</v>
+        <v>462300</v>
       </c>
       <c r="E52" s="3">
-        <v>560500</v>
+        <v>542400</v>
       </c>
       <c r="F52" s="3">
-        <v>283500</v>
+        <v>274400</v>
       </c>
       <c r="G52" s="3">
-        <v>165900</v>
+        <v>160500</v>
       </c>
       <c r="H52" s="3">
-        <v>258000</v>
+        <v>249700</v>
       </c>
       <c r="I52" s="3">
-        <v>224100</v>
+        <v>216900</v>
       </c>
       <c r="J52" s="3">
-        <v>154300</v>
+        <v>149300</v>
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,34 +1861,34 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>31106600</v>
+        <v>30105200</v>
       </c>
       <c r="E54" s="3">
-        <v>28252900</v>
+        <v>27343300</v>
       </c>
       <c r="F54" s="3">
-        <v>27670400</v>
+        <v>26779500</v>
       </c>
       <c r="G54" s="3">
-        <v>22917300</v>
+        <v>22179500</v>
       </c>
       <c r="H54" s="3">
-        <v>19848300</v>
+        <v>19209300</v>
       </c>
       <c r="I54" s="3">
-        <v>17433400</v>
+        <v>16872100</v>
       </c>
       <c r="J54" s="3">
-        <v>13992800</v>
+        <v>13542300</v>
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,7 +1901,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,169 +1914,169 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1270700</v>
+        <v>1229800</v>
       </c>
       <c r="E57" s="3">
-        <v>1135400</v>
+        <v>1098800</v>
       </c>
       <c r="F57" s="3">
-        <v>1103000</v>
+        <v>1067500</v>
       </c>
       <c r="G57" s="3">
-        <v>1180500</v>
+        <v>1142500</v>
       </c>
       <c r="H57" s="3">
-        <v>1335500</v>
+        <v>1292500</v>
       </c>
       <c r="I57" s="3">
-        <v>1279900</v>
+        <v>1238700</v>
       </c>
       <c r="J57" s="3">
-        <v>1106100</v>
+        <v>1070500</v>
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1048000</v>
+        <v>1014300</v>
       </c>
       <c r="E58" s="3">
-        <v>1385200</v>
+        <v>1340600</v>
       </c>
       <c r="F58" s="3">
-        <v>151300</v>
+        <v>146400</v>
       </c>
       <c r="G58" s="3">
-        <v>258600</v>
+        <v>250300</v>
       </c>
       <c r="H58" s="3">
-        <v>213900</v>
+        <v>207000</v>
       </c>
       <c r="I58" s="3">
-        <v>266400</v>
+        <v>257800</v>
       </c>
       <c r="J58" s="3">
-        <v>314700</v>
+        <v>304600</v>
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1927400</v>
+        <v>1865300</v>
       </c>
       <c r="E59" s="3">
-        <v>4808100</v>
+        <v>4653300</v>
       </c>
       <c r="F59" s="3">
-        <v>1692000</v>
+        <v>1637500</v>
       </c>
       <c r="G59" s="3">
-        <v>1488700</v>
+        <v>1440800</v>
       </c>
       <c r="H59" s="3">
-        <v>1212200</v>
+        <v>1173200</v>
       </c>
       <c r="I59" s="3">
-        <v>1512600</v>
+        <v>1463900</v>
       </c>
       <c r="J59" s="3">
-        <v>1172400</v>
+        <v>1134600</v>
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4246100</v>
+        <v>4109400</v>
       </c>
       <c r="E60" s="3">
-        <v>3694900</v>
+        <v>3575900</v>
       </c>
       <c r="F60" s="3">
-        <v>2946300</v>
+        <v>2851400</v>
       </c>
       <c r="G60" s="3">
-        <v>2927800</v>
+        <v>2833600</v>
       </c>
       <c r="H60" s="3">
-        <v>2761600</v>
+        <v>2672600</v>
       </c>
       <c r="I60" s="3">
-        <v>2478300</v>
+        <v>2398500</v>
       </c>
       <c r="J60" s="3">
-        <v>1942100</v>
+        <v>1879600</v>
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6847700</v>
+        <v>6627200</v>
       </c>
       <c r="E61" s="3">
-        <v>5262800</v>
+        <v>5093300</v>
       </c>
       <c r="F61" s="3">
-        <v>5726400</v>
+        <v>5542100</v>
       </c>
       <c r="G61" s="3">
-        <v>2781500</v>
+        <v>2691900</v>
       </c>
       <c r="H61" s="3">
-        <v>1659100</v>
+        <v>1605700</v>
       </c>
       <c r="I61" s="3">
-        <v>1512100</v>
+        <v>1463500</v>
       </c>
       <c r="J61" s="3">
-        <v>821800</v>
+        <v>795300</v>
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3822900</v>
+        <v>3699800</v>
       </c>
       <c r="E62" s="3">
-        <v>3910700</v>
+        <v>3784800</v>
       </c>
       <c r="F62" s="3">
-        <v>3954200</v>
+        <v>3826900</v>
       </c>
       <c r="G62" s="3">
-        <v>3293100</v>
+        <v>3187000</v>
       </c>
       <c r="H62" s="3">
-        <v>3050500</v>
+        <v>2952300</v>
       </c>
       <c r="I62" s="3">
-        <v>2616700</v>
+        <v>2532400</v>
       </c>
       <c r="J62" s="3">
-        <v>2170800</v>
+        <v>2100900</v>
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,7 +2103,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2095,7 +2130,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,34 +2157,34 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15314800</v>
+        <v>14821800</v>
       </c>
       <c r="E66" s="3">
-        <v>13259500</v>
+        <v>12832600</v>
       </c>
       <c r="F66" s="3">
-        <v>13010800</v>
+        <v>12592000</v>
       </c>
       <c r="G66" s="3">
-        <v>9347500</v>
+        <v>9046500</v>
       </c>
       <c r="H66" s="3">
-        <v>7739700</v>
+        <v>7490500</v>
       </c>
       <c r="I66" s="3">
-        <v>6839900</v>
+        <v>6619700</v>
       </c>
       <c r="J66" s="3">
-        <v>5126400</v>
+        <v>4961400</v>
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,7 +2197,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,7 +2224,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,7 +2251,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2243,7 +2278,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,34 +2305,34 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>12771000</v>
+        <v>12359900</v>
       </c>
       <c r="E72" s="3">
-        <v>11627900</v>
+        <v>11253500</v>
       </c>
       <c r="F72" s="3">
-        <v>10717500</v>
+        <v>10372500</v>
       </c>
       <c r="G72" s="3">
-        <v>12091000</v>
+        <v>11701800</v>
       </c>
       <c r="H72" s="3">
-        <v>10855000</v>
+        <v>10505500</v>
       </c>
       <c r="I72" s="3">
-        <v>9696700</v>
+        <v>9384500</v>
       </c>
       <c r="J72" s="3">
-        <v>8569600</v>
+        <v>8293700</v>
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,7 +2359,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,7 +2386,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,34 +2413,34 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15791800</v>
+        <v>15283400</v>
       </c>
       <c r="E76" s="3">
-        <v>14993400</v>
+        <v>14510700</v>
       </c>
       <c r="F76" s="3">
-        <v>14659500</v>
+        <v>14187600</v>
       </c>
       <c r="G76" s="3">
-        <v>13569800</v>
+        <v>13132900</v>
       </c>
       <c r="H76" s="3">
-        <v>12108600</v>
+        <v>11718800</v>
       </c>
       <c r="I76" s="3">
-        <v>10593500</v>
+        <v>10252400</v>
       </c>
       <c r="J76" s="3">
-        <v>8866400</v>
+        <v>8580900</v>
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,12 +2467,12 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2464,34 +2499,34 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>618200</v>
+        <v>598300</v>
       </c>
       <c r="E81" s="3">
-        <v>1442900</v>
+        <v>1396400</v>
       </c>
       <c r="F81" s="3">
-        <v>936600</v>
+        <v>906400</v>
       </c>
       <c r="G81" s="3">
-        <v>2104500</v>
+        <v>2036700</v>
       </c>
       <c r="H81" s="3">
-        <v>2094900</v>
+        <v>2027400</v>
       </c>
       <c r="I81" s="3">
-        <v>1860700</v>
+        <v>1800800</v>
       </c>
       <c r="J81" s="3">
-        <v>1669900</v>
+        <v>1616200</v>
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,34 +2539,34 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1163200</v>
+        <v>1125800</v>
       </c>
       <c r="E83" s="3">
-        <v>1147600</v>
+        <v>1110600</v>
       </c>
       <c r="F83" s="3">
-        <v>1159100</v>
+        <v>1121800</v>
       </c>
       <c r="G83" s="3">
-        <v>960800</v>
+        <v>929900</v>
       </c>
       <c r="H83" s="3">
-        <v>957200</v>
+        <v>926400</v>
       </c>
       <c r="I83" s="3">
-        <v>787600</v>
+        <v>762200</v>
       </c>
       <c r="J83" s="3">
-        <v>626200</v>
+        <v>606000</v>
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,7 +2593,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,7 +2620,7 @@
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,7 +2647,7 @@
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,7 +2674,7 @@
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,34 +2701,34 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1866400</v>
+        <v>1806300</v>
       </c>
       <c r="E89" s="3">
-        <v>2017000</v>
+        <v>1952000</v>
       </c>
       <c r="F89" s="3">
-        <v>2403300</v>
+        <v>2325900</v>
       </c>
       <c r="G89" s="3">
-        <v>2899100</v>
+        <v>2805800</v>
       </c>
       <c r="H89" s="3">
-        <v>3110100</v>
+        <v>3009900</v>
       </c>
       <c r="I89" s="3">
-        <v>2570200</v>
+        <v>2487500</v>
       </c>
       <c r="J89" s="3">
-        <v>1893800</v>
+        <v>1832800</v>
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,34 +2741,34 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3780700</v>
+        <v>-3656500</v>
       </c>
       <c r="E91" s="3">
-        <v>-4273500</v>
+        <v>-4131700</v>
       </c>
       <c r="F91" s="3">
-        <v>-4986400</v>
+        <v>-4824300</v>
       </c>
       <c r="G91" s="3">
-        <v>-3194400</v>
+        <v>-3086200</v>
       </c>
       <c r="H91" s="3">
-        <v>-2746300</v>
+        <v>-2652400</v>
       </c>
       <c r="I91" s="3">
-        <v>-4435100</v>
+        <v>-4287000</v>
       </c>
       <c r="J91" s="3">
-        <v>-4082800</v>
+        <v>-3948000</v>
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,7 +2795,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,34 +2822,34 @@
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3822800</v>
+        <v>-3699700</v>
       </c>
       <c r="E94" s="3">
-        <v>-4013900</v>
+        <v>-3884600</v>
       </c>
       <c r="F94" s="3">
-        <v>-5030600</v>
+        <v>-4868700</v>
       </c>
       <c r="G94" s="3">
-        <v>-2980500</v>
+        <v>-2884500</v>
       </c>
       <c r="H94" s="3">
-        <v>-2677900</v>
+        <v>-2591700</v>
       </c>
       <c r="I94" s="3">
-        <v>-2183600</v>
+        <v>-2113300</v>
       </c>
       <c r="J94" s="3">
-        <v>-1878400</v>
+        <v>-1817900</v>
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,7 +2862,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2854,7 +2889,7 @@
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,7 +2916,7 @@
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,7 +2943,7 @@
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,84 +2970,84 @@
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1018900</v>
+        <v>986100</v>
       </c>
       <c r="E100" s="3">
-        <v>605300</v>
+        <v>585800</v>
       </c>
       <c r="F100" s="3">
-        <v>2066400</v>
+        <v>1999900</v>
       </c>
       <c r="G100" s="3">
-        <v>925300</v>
+        <v>895500</v>
       </c>
       <c r="H100" s="3">
-        <v>64400</v>
+        <v>62300</v>
       </c>
       <c r="I100" s="3">
-        <v>603100</v>
+        <v>583700</v>
       </c>
       <c r="J100" s="3">
-        <v>-86500</v>
+        <v>-83700</v>
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>67600</v>
+        <v>65400</v>
       </c>
       <c r="E101" s="3">
-        <v>-227100</v>
+        <v>-219800</v>
       </c>
       <c r="F101" s="3">
-        <v>500600</v>
+        <v>484500</v>
       </c>
       <c r="G101" s="3">
-        <v>219200</v>
+        <v>212100</v>
       </c>
       <c r="H101" s="3">
-        <v>32200</v>
+        <v>31200</v>
       </c>
       <c r="I101" s="3">
-        <v>41300</v>
+        <v>40000</v>
       </c>
       <c r="J101" s="3">
-        <v>40800</v>
+        <v>39500</v>
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-870000</v>
+        <v>-841900</v>
       </c>
       <c r="E102" s="3">
-        <v>-1618700</v>
+        <v>-1566600</v>
       </c>
       <c r="F102" s="3">
-        <v>-60300</v>
+        <v>-58400</v>
       </c>
       <c r="G102" s="3">
-        <v>1063100</v>
+        <v>1028900</v>
       </c>
       <c r="H102" s="3">
-        <v>528700</v>
+        <v>511700</v>
       </c>
       <c r="I102" s="3">
-        <v>1031000</v>
+        <v>997800</v>
       </c>
       <c r="J102" s="3">
-        <v>-30200</v>
+        <v>-29300</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/Financials/Yearly/SSL_YR_FIN.xlsx
+++ b/Financials/Yearly/SSL_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C613E46-6543-41DE-B618-77BF66DAE1F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="SSL" sheetId="6" r:id="rId1"/>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,140 +654,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42916</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42551</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42185</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41820</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41455</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41090</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12437300</v>
+        <v>13659900</v>
       </c>
       <c r="E8" s="3">
-        <v>11816800</v>
+        <v>12176000</v>
       </c>
       <c r="F8" s="3">
-        <v>11853400</v>
+        <v>11568500</v>
       </c>
       <c r="G8" s="3">
-        <v>12698100</v>
+        <v>11604400</v>
       </c>
       <c r="H8" s="3">
-        <v>13891900</v>
+        <v>12431300</v>
       </c>
       <c r="I8" s="3">
-        <v>11644300</v>
+        <v>13600000</v>
       </c>
       <c r="J8" s="3">
+        <v>11399700</v>
+      </c>
+      <c r="K8" s="3">
         <v>10905700</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5250600</v>
+        <v>6078500</v>
       </c>
       <c r="E9" s="3">
-        <v>4896200</v>
+        <v>5140300</v>
       </c>
       <c r="F9" s="3">
-        <v>4888300</v>
+        <v>4793400</v>
       </c>
       <c r="G9" s="3">
-        <v>5494800</v>
+        <v>4785600</v>
       </c>
       <c r="H9" s="3">
-        <v>6115400</v>
+        <v>5379300</v>
       </c>
       <c r="I9" s="3">
-        <v>5251300</v>
+        <v>5986900</v>
       </c>
       <c r="J9" s="3">
+        <v>5141000</v>
+      </c>
+      <c r="K9" s="3">
         <v>13005700</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7186800</v>
+        <v>7581400</v>
       </c>
       <c r="E10" s="3">
-        <v>6920600</v>
+        <v>7035800</v>
       </c>
       <c r="F10" s="3">
-        <v>6965200</v>
+        <v>6775200</v>
       </c>
       <c r="G10" s="3">
-        <v>7203300</v>
+        <v>6818800</v>
       </c>
       <c r="H10" s="3">
-        <v>7776500</v>
+        <v>7052000</v>
       </c>
       <c r="I10" s="3">
-        <v>6393000</v>
+        <v>7613100</v>
       </c>
       <c r="J10" s="3">
+        <v>6258700</v>
+      </c>
+      <c r="K10" s="3">
         <v>-2100000</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,35 +811,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>45500</v>
+        <v>46800</v>
       </c>
       <c r="E12" s="3">
-        <v>33700</v>
+        <v>44600</v>
       </c>
       <c r="F12" s="3">
-        <v>19100</v>
+        <v>32900</v>
       </c>
       <c r="G12" s="3">
-        <v>38000</v>
+        <v>18700</v>
       </c>
       <c r="H12" s="3">
-        <v>44300</v>
+        <v>37200</v>
       </c>
       <c r="I12" s="3">
-        <v>126000</v>
+        <v>43400</v>
       </c>
       <c r="J12" s="3">
+        <v>123300</v>
+      </c>
+      <c r="K12" s="3">
         <v>90000</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -887,63 +868,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>656800</v>
+        <v>1250900</v>
       </c>
       <c r="E14" s="3">
-        <v>107800</v>
+        <v>643000</v>
       </c>
       <c r="F14" s="3">
-        <v>895700</v>
+        <v>105500</v>
       </c>
       <c r="G14" s="3">
-        <v>129500</v>
+        <v>876900</v>
       </c>
       <c r="H14" s="3">
-        <v>466100</v>
+        <v>126800</v>
       </c>
       <c r="I14" s="3">
-        <v>848000</v>
+        <v>456300</v>
       </c>
       <c r="J14" s="3">
+        <v>830200</v>
+      </c>
+      <c r="K14" s="3">
         <v>257300</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>1125800</v>
+        <v>1205700</v>
       </c>
       <c r="E15" s="3">
-        <v>1110600</v>
+        <v>1102100</v>
       </c>
       <c r="F15" s="3">
-        <v>1121800</v>
+        <v>1087300</v>
       </c>
       <c r="G15" s="3">
-        <v>929900</v>
+        <v>1098200</v>
       </c>
       <c r="H15" s="3">
-        <v>926400</v>
+        <v>910300</v>
       </c>
       <c r="I15" s="3">
-        <v>762200</v>
+        <v>906900</v>
       </c>
       <c r="J15" s="3">
+        <v>746200</v>
+      </c>
+      <c r="K15" s="3">
         <v>606000</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -952,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>11319900</v>
+        <v>13081300</v>
       </c>
       <c r="E17" s="3">
-        <v>9717100</v>
+        <v>11082000</v>
       </c>
       <c r="F17" s="3">
-        <v>10227000</v>
+        <v>9513000</v>
       </c>
       <c r="G17" s="3">
-        <v>9648600</v>
+        <v>10012100</v>
       </c>
       <c r="H17" s="3">
-        <v>11036400</v>
+        <v>9445900</v>
       </c>
       <c r="I17" s="3">
-        <v>9223500</v>
+        <v>10804600</v>
       </c>
       <c r="J17" s="3">
+        <v>9029700</v>
+      </c>
+      <c r="K17" s="3">
         <v>8731000</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1117500</v>
+        <v>578600</v>
       </c>
       <c r="E18" s="3">
-        <v>2099700</v>
+        <v>1094000</v>
       </c>
       <c r="F18" s="3">
-        <v>1626500</v>
+        <v>2055500</v>
       </c>
       <c r="G18" s="3">
-        <v>3049600</v>
+        <v>1592300</v>
       </c>
       <c r="H18" s="3">
-        <v>2855400</v>
+        <v>2985500</v>
       </c>
       <c r="I18" s="3">
-        <v>2420800</v>
+        <v>2795500</v>
       </c>
       <c r="J18" s="3">
+        <v>2370000</v>
+      </c>
+      <c r="K18" s="3">
         <v>2174700</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1019,143 +1016,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>216500</v>
+        <v>124900</v>
       </c>
       <c r="E20" s="3">
-        <v>180900</v>
+        <v>212000</v>
       </c>
       <c r="F20" s="3">
-        <v>159600</v>
+        <v>177100</v>
       </c>
       <c r="G20" s="3">
-        <v>228200</v>
+        <v>156200</v>
       </c>
       <c r="H20" s="3">
-        <v>368500</v>
+        <v>223400</v>
       </c>
       <c r="I20" s="3">
-        <v>582500</v>
+        <v>360800</v>
       </c>
       <c r="J20" s="3">
+        <v>570200</v>
+      </c>
+      <c r="K20" s="3">
         <v>537800</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2459800</v>
+        <v>1919900</v>
       </c>
       <c r="E21" s="3">
-        <v>3391200</v>
+        <v>2417900</v>
       </c>
       <c r="F21" s="3">
-        <v>2907800</v>
+        <v>3329600</v>
       </c>
       <c r="G21" s="3">
-        <v>4207700</v>
+        <v>2856500</v>
       </c>
       <c r="H21" s="3">
-        <v>4150400</v>
+        <v>4127400</v>
       </c>
       <c r="I21" s="3">
-        <v>3765500</v>
+        <v>4071300</v>
       </c>
       <c r="J21" s="3">
+        <v>3693100</v>
+      </c>
+      <c r="K21" s="3">
         <v>3318500</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>257600</v>
+        <v>84100</v>
       </c>
       <c r="E22" s="3">
-        <v>223800</v>
+        <v>252200</v>
       </c>
       <c r="F22" s="3">
-        <v>160400</v>
+        <v>219100</v>
       </c>
       <c r="G22" s="3">
-        <v>152800</v>
+        <v>157000</v>
       </c>
       <c r="H22" s="3">
-        <v>131900</v>
+        <v>149600</v>
       </c>
       <c r="I22" s="3">
-        <v>281800</v>
+        <v>129200</v>
       </c>
       <c r="J22" s="3">
+        <v>275900</v>
+      </c>
+      <c r="K22" s="3">
         <v>265400</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1076400</v>
+        <v>619400</v>
       </c>
       <c r="E23" s="3">
-        <v>2056700</v>
+        <v>1053700</v>
       </c>
       <c r="F23" s="3">
-        <v>1625600</v>
+        <v>2013500</v>
       </c>
       <c r="G23" s="3">
-        <v>3124900</v>
+        <v>1591500</v>
       </c>
       <c r="H23" s="3">
-        <v>3092000</v>
+        <v>3059300</v>
       </c>
       <c r="I23" s="3">
-        <v>2721400</v>
+        <v>3027100</v>
       </c>
       <c r="J23" s="3">
+        <v>2664300</v>
+      </c>
+      <c r="K23" s="3">
         <v>2447100</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>380900</v>
+        <v>211800</v>
       </c>
       <c r="E24" s="3">
-        <v>582200</v>
+        <v>372900</v>
       </c>
       <c r="F24" s="3">
-        <v>595700</v>
+        <v>570000</v>
       </c>
       <c r="G24" s="3">
-        <v>989100</v>
+        <v>583200</v>
       </c>
       <c r="H24" s="3">
-        <v>1007300</v>
+        <v>968300</v>
       </c>
       <c r="I24" s="3">
-        <v>863300</v>
+        <v>986100</v>
       </c>
       <c r="J24" s="3">
+        <v>845100</v>
+      </c>
+      <c r="K24" s="3">
         <v>788300</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1180,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>695400</v>
+        <v>407600</v>
       </c>
       <c r="E26" s="3">
-        <v>1474500</v>
+        <v>680800</v>
       </c>
       <c r="F26" s="3">
-        <v>1030000</v>
+        <v>1443500</v>
       </c>
       <c r="G26" s="3">
-        <v>2135800</v>
+        <v>1008300</v>
       </c>
       <c r="H26" s="3">
-        <v>2084800</v>
+        <v>2091000</v>
       </c>
       <c r="I26" s="3">
-        <v>1858200</v>
+        <v>2041000</v>
       </c>
       <c r="J26" s="3">
+        <v>1819100</v>
+      </c>
+      <c r="K26" s="3">
         <v>1658800</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>598300</v>
+        <v>288400</v>
       </c>
       <c r="E27" s="3">
-        <v>1396400</v>
+        <v>585700</v>
       </c>
       <c r="F27" s="3">
-        <v>906400</v>
+        <v>1367100</v>
       </c>
       <c r="G27" s="3">
-        <v>2036700</v>
+        <v>887400</v>
       </c>
       <c r="H27" s="3">
-        <v>2027400</v>
+        <v>1993900</v>
       </c>
       <c r="I27" s="3">
-        <v>1800800</v>
+        <v>1984800</v>
       </c>
       <c r="J27" s="3">
+        <v>1763000</v>
+      </c>
+      <c r="K27" s="3">
         <v>1616200</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1261,9 +1283,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1288,9 +1313,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1315,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1342,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-216500</v>
+        <v>-124900</v>
       </c>
       <c r="E32" s="3">
-        <v>-180900</v>
+        <v>-212000</v>
       </c>
       <c r="F32" s="3">
-        <v>-159600</v>
+        <v>-177100</v>
       </c>
       <c r="G32" s="3">
-        <v>-228200</v>
+        <v>-156200</v>
       </c>
       <c r="H32" s="3">
-        <v>-368500</v>
+        <v>-223400</v>
       </c>
       <c r="I32" s="3">
-        <v>-582500</v>
+        <v>-360800</v>
       </c>
       <c r="J32" s="3">
+        <v>-570200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-537800</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>598300</v>
+        <v>288400</v>
       </c>
       <c r="E33" s="3">
-        <v>1396400</v>
+        <v>585700</v>
       </c>
       <c r="F33" s="3">
-        <v>906400</v>
+        <v>1367100</v>
       </c>
       <c r="G33" s="3">
-        <v>2036700</v>
+        <v>887400</v>
       </c>
       <c r="H33" s="3">
-        <v>2027400</v>
+        <v>1993900</v>
       </c>
       <c r="I33" s="3">
-        <v>1800800</v>
+        <v>1984800</v>
       </c>
       <c r="J33" s="3">
+        <v>1763000</v>
+      </c>
+      <c r="K33" s="3">
         <v>1616200</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1423,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>598300</v>
+        <v>288400</v>
       </c>
       <c r="E35" s="3">
-        <v>1396400</v>
+        <v>585700</v>
       </c>
       <c r="F35" s="3">
-        <v>906400</v>
+        <v>1367100</v>
       </c>
       <c r="G35" s="3">
-        <v>2036700</v>
+        <v>887400</v>
       </c>
       <c r="H35" s="3">
-        <v>2027400</v>
+        <v>1993900</v>
       </c>
       <c r="I35" s="3">
-        <v>1800800</v>
+        <v>1984800</v>
       </c>
       <c r="J35" s="3">
+        <v>1763000</v>
+      </c>
+      <c r="K35" s="3">
         <v>1616200</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42916</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42551</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42185</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41820</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41455</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41090</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1496,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1509,46 +1559,50 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1038200</v>
+        <v>1065300</v>
       </c>
       <c r="E41" s="3">
-        <v>1894700</v>
+        <v>1016400</v>
       </c>
       <c r="F41" s="3">
-        <v>3426000</v>
+        <v>1854800</v>
       </c>
       <c r="G41" s="3">
-        <v>3312500</v>
+        <v>3354000</v>
       </c>
       <c r="H41" s="3">
-        <v>2546600</v>
+        <v>3242900</v>
       </c>
       <c r="I41" s="3">
-        <v>1730400</v>
+        <v>2493100</v>
       </c>
       <c r="J41" s="3">
+        <v>1694100</v>
+      </c>
+      <c r="K41" s="3">
         <v>859400</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>5800</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>35</v>
+        <v>5700</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>35</v>
@@ -1556,204 +1610,228 @@
       <c r="H42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I42" s="3">
-        <v>1036700</v>
+      <c r="I42" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="J42" s="3">
+        <v>1015000</v>
+      </c>
+      <c r="K42" s="3">
         <v>399500</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2207100</v>
+        <v>1870900</v>
       </c>
       <c r="E43" s="3">
-        <v>4059300</v>
+        <v>2160800</v>
       </c>
       <c r="F43" s="3">
-        <v>2070700</v>
+        <v>3974000</v>
       </c>
       <c r="G43" s="3">
-        <v>1954200</v>
+        <v>2027200</v>
       </c>
       <c r="H43" s="3">
-        <v>2053400</v>
+        <v>1913200</v>
       </c>
       <c r="I43" s="3">
-        <v>2175500</v>
+        <v>2010200</v>
       </c>
       <c r="J43" s="3">
+        <v>2129800</v>
+      </c>
+      <c r="K43" s="3">
         <v>2036300</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2012600</v>
+        <v>1989200</v>
       </c>
       <c r="E44" s="3">
-        <v>3478300</v>
+        <v>1970300</v>
       </c>
       <c r="F44" s="3">
-        <v>1631100</v>
+        <v>3405200</v>
       </c>
       <c r="G44" s="3">
-        <v>1586100</v>
+        <v>1596800</v>
       </c>
       <c r="H44" s="3">
-        <v>1834000</v>
+        <v>1552800</v>
       </c>
       <c r="I44" s="3">
-        <v>1550300</v>
+        <v>1795500</v>
       </c>
       <c r="J44" s="3">
+        <v>1517700</v>
+      </c>
+      <c r="K44" s="3">
         <v>1296800</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>305600</v>
+        <v>309300</v>
       </c>
       <c r="E45" s="3">
-        <v>403800</v>
+        <v>299100</v>
       </c>
       <c r="F45" s="3">
-        <v>283700</v>
+        <v>395300</v>
       </c>
       <c r="G45" s="3">
-        <v>458900</v>
+        <v>277700</v>
       </c>
       <c r="H45" s="3">
-        <v>239800</v>
+        <v>449300</v>
       </c>
       <c r="I45" s="3">
-        <v>711700</v>
+        <v>234800</v>
       </c>
       <c r="J45" s="3">
+        <v>696700</v>
+      </c>
+      <c r="K45" s="3">
         <v>297600</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5569400</v>
+        <v>5234800</v>
       </c>
       <c r="E46" s="3">
-        <v>6028400</v>
+        <v>5452300</v>
       </c>
       <c r="F46" s="3">
-        <v>7411400</v>
+        <v>5901700</v>
       </c>
       <c r="G46" s="3">
-        <v>7311700</v>
+        <v>7255700</v>
       </c>
       <c r="H46" s="3">
-        <v>6673800</v>
+        <v>7158100</v>
       </c>
       <c r="I46" s="3">
-        <v>5898700</v>
+        <v>6533600</v>
       </c>
       <c r="J46" s="3">
+        <v>5774800</v>
+      </c>
+      <c r="K46" s="3">
         <v>4192600</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1078000</v>
+        <v>1120300</v>
       </c>
       <c r="E47" s="3">
-        <v>1014600</v>
+        <v>1055300</v>
       </c>
       <c r="F47" s="3">
-        <v>1153700</v>
+        <v>993300</v>
       </c>
       <c r="G47" s="3">
-        <v>992900</v>
+        <v>1129500</v>
       </c>
       <c r="H47" s="3">
-        <v>956500</v>
+        <v>972100</v>
       </c>
       <c r="I47" s="3">
-        <v>1139700</v>
+        <v>936400</v>
       </c>
       <c r="J47" s="3">
+        <v>1115700</v>
+      </c>
+      <c r="K47" s="3">
         <v>1142500</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22811300</v>
+        <v>24244100</v>
       </c>
       <c r="E48" s="3">
-        <v>30725100</v>
+        <v>22332100</v>
       </c>
       <c r="F48" s="3">
-        <v>17756300</v>
+        <v>30079600</v>
       </c>
       <c r="G48" s="3">
-        <v>13557100</v>
+        <v>17383300</v>
       </c>
       <c r="H48" s="3">
-        <v>11156200</v>
+        <v>13272300</v>
       </c>
       <c r="I48" s="3">
-        <v>3681000</v>
+        <v>10921800</v>
       </c>
       <c r="J48" s="3">
+        <v>3603700</v>
+      </c>
+      <c r="K48" s="3">
         <v>3132200</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>184200</v>
+        <v>225300</v>
       </c>
       <c r="E49" s="3">
-        <v>161800</v>
+        <v>180300</v>
       </c>
       <c r="F49" s="3">
-        <v>183700</v>
+        <v>158400</v>
       </c>
       <c r="G49" s="3">
-        <v>157200</v>
+        <v>179800</v>
       </c>
       <c r="H49" s="3">
-        <v>173100</v>
+        <v>153900</v>
       </c>
       <c r="I49" s="3">
-        <v>19500</v>
-      </c>
-      <c r="J49" s="3" t="s">
+        <v>169500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>19100</v>
+      </c>
+      <c r="K49" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1778,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1805,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>462300</v>
+        <v>710400</v>
       </c>
       <c r="E52" s="3">
-        <v>542400</v>
+        <v>452600</v>
       </c>
       <c r="F52" s="3">
-        <v>274400</v>
+        <v>531000</v>
       </c>
       <c r="G52" s="3">
-        <v>160500</v>
+        <v>268600</v>
       </c>
       <c r="H52" s="3">
-        <v>249700</v>
+        <v>157100</v>
       </c>
       <c r="I52" s="3">
-        <v>216900</v>
+        <v>244400</v>
       </c>
       <c r="J52" s="3">
+        <v>212400</v>
+      </c>
+      <c r="K52" s="3">
         <v>149300</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1859,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30105200</v>
+        <v>31534900</v>
       </c>
       <c r="E54" s="3">
-        <v>27343300</v>
+        <v>29472700</v>
       </c>
       <c r="F54" s="3">
-        <v>26779500</v>
+        <v>26768800</v>
       </c>
       <c r="G54" s="3">
-        <v>22179500</v>
+        <v>26216900</v>
       </c>
       <c r="H54" s="3">
-        <v>19209300</v>
+        <v>21713500</v>
       </c>
       <c r="I54" s="3">
-        <v>16872100</v>
+        <v>18805700</v>
       </c>
       <c r="J54" s="3">
+        <v>16517700</v>
+      </c>
+      <c r="K54" s="3">
         <v>13542300</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1900,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1913,170 +2007,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1229800</v>
+        <v>1377100</v>
       </c>
       <c r="E57" s="3">
-        <v>1098800</v>
+        <v>1204000</v>
       </c>
       <c r="F57" s="3">
-        <v>1067500</v>
+        <v>1075700</v>
       </c>
       <c r="G57" s="3">
-        <v>1142500</v>
+        <v>1045100</v>
       </c>
       <c r="H57" s="3">
-        <v>1292500</v>
+        <v>1118500</v>
       </c>
       <c r="I57" s="3">
-        <v>1238700</v>
+        <v>1265300</v>
       </c>
       <c r="J57" s="3">
+        <v>1212700</v>
+      </c>
+      <c r="K57" s="3">
         <v>1070500</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1014300</v>
+        <v>257700</v>
       </c>
       <c r="E58" s="3">
-        <v>1340600</v>
+        <v>992900</v>
       </c>
       <c r="F58" s="3">
-        <v>146400</v>
+        <v>1312400</v>
       </c>
       <c r="G58" s="3">
-        <v>250300</v>
+        <v>143300</v>
       </c>
       <c r="H58" s="3">
-        <v>207000</v>
+        <v>245000</v>
       </c>
       <c r="I58" s="3">
-        <v>257800</v>
+        <v>202600</v>
       </c>
       <c r="J58" s="3">
+        <v>252400</v>
+      </c>
+      <c r="K58" s="3">
         <v>304600</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1865300</v>
+        <v>1659700</v>
       </c>
       <c r="E59" s="3">
-        <v>4653300</v>
+        <v>1826100</v>
       </c>
       <c r="F59" s="3">
-        <v>1637500</v>
+        <v>4555600</v>
       </c>
       <c r="G59" s="3">
-        <v>1440800</v>
+        <v>1603100</v>
       </c>
       <c r="H59" s="3">
-        <v>1173200</v>
+        <v>1410500</v>
       </c>
       <c r="I59" s="3">
-        <v>1463900</v>
+        <v>1148600</v>
       </c>
       <c r="J59" s="3">
+        <v>1433100</v>
+      </c>
+      <c r="K59" s="3">
         <v>1134600</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4109400</v>
+        <v>3294500</v>
       </c>
       <c r="E60" s="3">
-        <v>3575900</v>
+        <v>4023000</v>
       </c>
       <c r="F60" s="3">
-        <v>2851400</v>
+        <v>3500800</v>
       </c>
       <c r="G60" s="3">
-        <v>2833600</v>
+        <v>2791500</v>
       </c>
       <c r="H60" s="3">
-        <v>2672600</v>
+        <v>2774000</v>
       </c>
       <c r="I60" s="3">
-        <v>2398500</v>
+        <v>2616500</v>
       </c>
       <c r="J60" s="3">
+        <v>2348100</v>
+      </c>
+      <c r="K60" s="3">
         <v>1879600</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6627200</v>
+        <v>9044700</v>
       </c>
       <c r="E61" s="3">
-        <v>5093300</v>
+        <v>6488000</v>
       </c>
       <c r="F61" s="3">
-        <v>5542100</v>
+        <v>4986300</v>
       </c>
       <c r="G61" s="3">
-        <v>2691900</v>
+        <v>5234800</v>
       </c>
       <c r="H61" s="3">
-        <v>1605700</v>
+        <v>2635400</v>
       </c>
       <c r="I61" s="3">
-        <v>1463500</v>
+        <v>1572000</v>
       </c>
       <c r="J61" s="3">
+        <v>1432700</v>
+      </c>
+      <c r="K61" s="3">
         <v>795300</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3699800</v>
+        <v>4044800</v>
       </c>
       <c r="E62" s="3">
-        <v>3784800</v>
+        <v>3622100</v>
       </c>
       <c r="F62" s="3">
-        <v>3826900</v>
+        <v>3705300</v>
       </c>
       <c r="G62" s="3">
-        <v>3187000</v>
+        <v>3937400</v>
       </c>
       <c r="H62" s="3">
-        <v>2952300</v>
+        <v>3120100</v>
       </c>
       <c r="I62" s="3">
-        <v>2532400</v>
+        <v>2890300</v>
       </c>
       <c r="J62" s="3">
+        <v>2479200</v>
+      </c>
+      <c r="K62" s="3">
         <v>2100900</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2101,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2128,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2155,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14821800</v>
+        <v>16778900</v>
       </c>
       <c r="E66" s="3">
-        <v>12832600</v>
+        <v>14510400</v>
       </c>
       <c r="F66" s="3">
-        <v>12592000</v>
+        <v>12563000</v>
       </c>
       <c r="G66" s="3">
-        <v>9046500</v>
+        <v>12327400</v>
       </c>
       <c r="H66" s="3">
-        <v>7490500</v>
+        <v>8856500</v>
       </c>
       <c r="I66" s="3">
-        <v>6619700</v>
+        <v>7333200</v>
       </c>
       <c r="J66" s="3">
+        <v>6480700</v>
+      </c>
+      <c r="K66" s="3">
         <v>4961400</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2196,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2222,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2249,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2276,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2303,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>12359900</v>
+        <v>12220000</v>
       </c>
       <c r="E72" s="3">
-        <v>11253500</v>
+        <v>12100200</v>
       </c>
       <c r="F72" s="3">
-        <v>10372500</v>
+        <v>11017100</v>
       </c>
       <c r="G72" s="3">
-        <v>11701800</v>
+        <v>10154600</v>
       </c>
       <c r="H72" s="3">
-        <v>10505500</v>
+        <v>11455900</v>
       </c>
       <c r="I72" s="3">
-        <v>9384500</v>
+        <v>10284800</v>
       </c>
       <c r="J72" s="3">
+        <v>9187300</v>
+      </c>
+      <c r="K72" s="3">
         <v>8293700</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2357,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2384,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2411,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15283400</v>
+        <v>14756000</v>
       </c>
       <c r="E76" s="3">
-        <v>14510700</v>
+        <v>14962300</v>
       </c>
       <c r="F76" s="3">
-        <v>14187600</v>
+        <v>14205800</v>
       </c>
       <c r="G76" s="3">
-        <v>13132900</v>
+        <v>13889500</v>
       </c>
       <c r="H76" s="3">
-        <v>11718800</v>
+        <v>12857000</v>
       </c>
       <c r="I76" s="3">
-        <v>10252400</v>
+        <v>11472600</v>
       </c>
       <c r="J76" s="3">
+        <v>10037000</v>
+      </c>
+      <c r="K76" s="3">
         <v>8580900</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2465,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42916</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42551</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42185</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41820</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41455</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41090</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>598300</v>
+        <v>288400</v>
       </c>
       <c r="E81" s="3">
-        <v>1396400</v>
+        <v>585700</v>
       </c>
       <c r="F81" s="3">
-        <v>906400</v>
+        <v>1367100</v>
       </c>
       <c r="G81" s="3">
-        <v>2036700</v>
+        <v>887400</v>
       </c>
       <c r="H81" s="3">
-        <v>2027400</v>
+        <v>1993900</v>
       </c>
       <c r="I81" s="3">
-        <v>1800800</v>
+        <v>1984800</v>
       </c>
       <c r="J81" s="3">
+        <v>1763000</v>
+      </c>
+      <c r="K81" s="3">
         <v>1616200</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2538,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1125800</v>
+        <v>1205700</v>
       </c>
       <c r="E83" s="3">
-        <v>1110600</v>
+        <v>1102100</v>
       </c>
       <c r="F83" s="3">
-        <v>1121800</v>
+        <v>1087300</v>
       </c>
       <c r="G83" s="3">
-        <v>929900</v>
+        <v>1098200</v>
       </c>
       <c r="H83" s="3">
-        <v>926400</v>
+        <v>910300</v>
       </c>
       <c r="I83" s="3">
-        <v>762200</v>
+        <v>906900</v>
       </c>
       <c r="J83" s="3">
+        <v>746200</v>
+      </c>
+      <c r="K83" s="3">
         <v>606000</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2591,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2618,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2645,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2672,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2699,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1806300</v>
+        <v>2140400</v>
       </c>
       <c r="E89" s="3">
-        <v>1952000</v>
+        <v>1768400</v>
       </c>
       <c r="F89" s="3">
-        <v>2325900</v>
+        <v>1911000</v>
       </c>
       <c r="G89" s="3">
-        <v>2805800</v>
+        <v>2277000</v>
       </c>
       <c r="H89" s="3">
-        <v>3009900</v>
+        <v>2746800</v>
       </c>
       <c r="I89" s="3">
-        <v>2487500</v>
+        <v>2946700</v>
       </c>
       <c r="J89" s="3">
+        <v>2435200</v>
+      </c>
+      <c r="K89" s="3">
         <v>1832800</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2740,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3656500</v>
+        <v>-3742900</v>
       </c>
       <c r="E91" s="3">
-        <v>-4131700</v>
+        <v>-3579700</v>
       </c>
       <c r="F91" s="3">
-        <v>-4824300</v>
+        <v>-4044900</v>
       </c>
       <c r="G91" s="3">
-        <v>-3086200</v>
+        <v>-4723000</v>
       </c>
       <c r="H91" s="3">
-        <v>-2652400</v>
+        <v>-3021300</v>
       </c>
       <c r="I91" s="3">
-        <v>-4287000</v>
+        <v>-2596600</v>
       </c>
       <c r="J91" s="3">
+        <v>-4197000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3948000</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2793,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2820,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3699700</v>
+        <v>-3785200</v>
       </c>
       <c r="E94" s="3">
-        <v>-3884600</v>
+        <v>-3622000</v>
       </c>
       <c r="F94" s="3">
-        <v>-4868700</v>
+        <v>-3803000</v>
       </c>
       <c r="G94" s="3">
-        <v>-2884500</v>
+        <v>-4766400</v>
       </c>
       <c r="H94" s="3">
-        <v>-2591700</v>
+        <v>-2823900</v>
       </c>
       <c r="I94" s="3">
-        <v>-2113300</v>
+        <v>-2537300</v>
       </c>
       <c r="J94" s="3">
+        <v>-2068900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1817900</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2861,8 +3058,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2887,9 +3085,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2914,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2941,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2968,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>986100</v>
+        <v>1552100</v>
       </c>
       <c r="E100" s="3">
-        <v>585800</v>
+        <v>965400</v>
       </c>
       <c r="F100" s="3">
-        <v>1999900</v>
+        <v>573500</v>
       </c>
       <c r="G100" s="3">
-        <v>895500</v>
+        <v>1957800</v>
       </c>
       <c r="H100" s="3">
-        <v>62300</v>
+        <v>876700</v>
       </c>
       <c r="I100" s="3">
-        <v>583700</v>
+        <v>61000</v>
       </c>
       <c r="J100" s="3">
+        <v>571400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-83700</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>65400</v>
+        <v>10900</v>
       </c>
       <c r="E101" s="3">
-        <v>-219800</v>
+        <v>64000</v>
       </c>
       <c r="F101" s="3">
-        <v>484500</v>
+        <v>-215200</v>
       </c>
       <c r="G101" s="3">
-        <v>212100</v>
+        <v>474300</v>
       </c>
       <c r="H101" s="3">
-        <v>31200</v>
+        <v>207700</v>
       </c>
       <c r="I101" s="3">
-        <v>40000</v>
+        <v>30500</v>
       </c>
       <c r="J101" s="3">
+        <v>39100</v>
+      </c>
+      <c r="K101" s="3">
         <v>39500</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-841900</v>
+        <v>-81900</v>
       </c>
       <c r="E102" s="3">
-        <v>-1566600</v>
+        <v>-824300</v>
       </c>
       <c r="F102" s="3">
-        <v>-58400</v>
+        <v>-1533700</v>
       </c>
       <c r="G102" s="3">
-        <v>1028900</v>
+        <v>-57200</v>
       </c>
       <c r="H102" s="3">
-        <v>511700</v>
+        <v>1007200</v>
       </c>
       <c r="I102" s="3">
-        <v>997800</v>
+        <v>501000</v>
       </c>
       <c r="J102" s="3">
+        <v>976800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-29300</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
